--- a/Bike_sales_dashboard.xlsx
+++ b/Bike_sales_dashboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40d22f4de778402e/Document/DataAnalysisProjects/bike_store_dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\OneDrive\Document\DataAnalysisProjects\BikeSales_dashboard_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{B5B21440-63FB-4CCE-9527-BB1A04A81404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{057C4ED6-CAE2-48CE-AA33-D553B58A0C8C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EB3C80-A4ED-4C7F-B79E-772317AF244C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,16 +192,16 @@
     <t>Adolescent (0-30)</t>
   </si>
   <si>
-    <t xml:space="preserve">        Bike Sales Dashboard</t>
+    <t xml:space="preserve">            BIKE SALES DASHBOARD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -348,9 +348,10 @@
     </font>
     <font>
       <sz val="30"/>
-      <color theme="1"/>
-      <name val="Arial Black"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -535,12 +536,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FF4B49AC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -655,229 +656,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -923,49 +701,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1012,20 +758,260 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4B49AC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Purple Slicer 2" pivot="0" table="0" count="6" xr9:uid="{692A177B-8777-460D-90E7-AA6813E3FC4E}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF98BDFF"/>
+      <color rgb="FF4B49AC"/>
+      <color rgb="FFF3797E"/>
       <color rgb="FF737373"/>
     </mruColors>
   </colors>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
+      <x14:dxfs count="8">
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <color theme="0"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+          <border>
+            <left style="thin">
+              <color theme="0"/>
+            </left>
+            <right style="thin">
+              <color theme="0"/>
+            </right>
+            <top style="thin">
+              <color theme="0"/>
+            </top>
+            <bottom style="thin">
+              <color theme="0"/>
+            </bottom>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+          <border>
+            <left style="thin">
+              <color theme="0"/>
+            </left>
+            <right style="thin">
+              <color theme="0"/>
+            </right>
+            <top style="thin">
+              <color theme="0"/>
+            </top>
+            <bottom style="thin">
+              <color theme="0"/>
+            </bottom>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <strike/>
+            <color theme="0" tint="-4.9989318521683403E-2"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+          <border>
+            <left style="thin">
+              <color theme="0"/>
+            </left>
+            <right style="thin">
+              <color theme="0"/>
+            </right>
+            <top style="thin">
+              <color theme="0"/>
+            </top>
+            <bottom style="thin">
+              <color theme="0"/>
+            </bottom>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <strike/>
+            <color theme="0" tint="-4.9989318521683403E-2"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+          <border>
+            <left style="thin">
+              <color theme="0"/>
+            </left>
+            <right style="thin">
+              <color theme="0"/>
+            </right>
+            <top style="thin">
+              <color theme="0"/>
+            </top>
+            <bottom style="thin">
+              <color theme="0"/>
+            </bottom>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <color theme="0"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+          <border>
+            <left style="thin">
+              <color theme="0"/>
+            </left>
+            <right style="thin">
+              <color theme="0"/>
+            </right>
+            <top style="thin">
+              <color theme="0"/>
+            </top>
+            <bottom style="thin">
+              <color theme="0"/>
+            </bottom>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+          <border>
+            <left style="thin">
+              <color theme="0"/>
+            </left>
+            <right style="thin">
+              <color theme="0"/>
+            </right>
+            <top style="thin">
+              <color theme="0"/>
+            </top>
+            <bottom style="thin">
+              <color theme="0"/>
+            </bottom>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <strike/>
+            <color theme="0" tint="-4.9989318521683403E-2"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+          <border>
+            <left style="thin">
+              <color theme="0"/>
+            </left>
+            <right style="thin">
+              <color theme="0"/>
+            </right>
+            <top style="thin">
+              <color theme="0"/>
+            </top>
+            <bottom style="thin">
+              <color theme="0"/>
+            </bottom>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <strike/>
+            <color theme="0" tint="-4.9989318521683403E-2"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+          <border>
+            <left style="thin">
+              <color theme="0"/>
+            </left>
+            <right style="thin">
+              <color theme="0"/>
+            </right>
+            <top style="thin">
+              <color theme="0"/>
+            </top>
+            <bottom style="thin">
+              <color theme="0"/>
+            </bottom>
+          </border>
+        </dxf>
+      </x14:dxfs>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1">
+        <x14:slicerStyle name="Purple Slicer 2">
+          <x14:slicerStyleElements>
+            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="3"/>
+            <x14:slicerStyleElement type="unselectedItemWithNoData" dxfId="2"/>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="1"/>
+            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="0"/>
+          </x14:slicerStyleElements>
+        </x14:slicerStyle>
+      </x14:slicerStyles>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
@@ -1048,7 +1034,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable1</c:name>
+    <c:name>[Bike_sales_dashboard.xlsx]Pivot Table!PivotTable1</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -1058,13 +1044,10 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-IN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1072,7 +1055,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
+              <a:rPr lang="en-IN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>Avg Income Per Purchase </a:t>
             </a:r>
           </a:p>
@@ -1098,13 +1088,10 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-IN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1182,32 +1169,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
-          <a:gradFill flip="none" rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1"/>
-              </a:gs>
-              <a:gs pos="75000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="51000">
-                <a:schemeClr val="accent1">
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                  <a:alpha val="15000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
+          <a:solidFill>
+            <a:srgbClr val="4B49AC"/>
+          </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -1261,32 +1225,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
-          <a:gradFill flip="none" rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1"/>
-              </a:gs>
-              <a:gs pos="75000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="51000">
-                <a:schemeClr val="accent1">
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                  <a:alpha val="15000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
+          <a:solidFill>
+            <a:srgbClr val="F3797E"/>
+          </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -1337,6 +1278,18 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="F3797E"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -1369,32 +1322,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1"/>
-                </a:gs>
-                <a:gs pos="75000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="51000">
-                  <a:schemeClr val="accent1">
-                    <a:alpha val="75000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:srgbClr val="4B49AC"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1451,32 +1381,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2"/>
-                </a:gs>
-                <a:gs pos="75000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="51000">
-                  <a:schemeClr val="accent2">
-                    <a:alpha val="75000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:srgbClr val="F3797E"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1647,23 +1554,11 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="5000"/>
-                      <a:lumOff val="95000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="25000"/>
-                      <a:lumOff val="75000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1768,9 +1663,8 @@
           <a:noFill/>
           <a:ln w="9525">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
               </a:schemeClr>
             </a:solidFill>
           </a:ln>
@@ -1859,7 +1753,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="98BDFF"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1894,7 +1788,6 @@
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -1920,7 +1813,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable2</c:name>
+    <c:name>[Bike_sales_dashboard.xlsx]Pivot Table!PivotTable2</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -1931,12 +1824,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1963,12 +1853,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr lang="en-US" sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2084,12 +1971,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2153,12 +2037,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2395,9 +2276,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2405,69 +2285,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IN"/>
-                  <a:t>Commute Distance</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.31687379702537177"/>
-              <c:y val="0.80099737532808402"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2490,12 +2307,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2541,12 +2355,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2583,12 +2394,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2612,7 +2420,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:srgbClr val="98BDFF"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2630,7 +2438,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2647,7 +2462,6 @@
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -2673,7 +2487,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable3</c:name>
+    <c:name>[Bike_sales_dashboard.xlsx]Pivot Table!PivotTable3</c:name>
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
@@ -2684,12 +2498,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2713,7 +2524,9 @@
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="98BDFF"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2724,12 +2537,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr lang="en-US" sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2807,7 +2617,7 @@
         <c:spPr>
           <a:ln w="22225" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4B49AC"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2845,12 +2655,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2876,7 +2683,7 @@
         <c:spPr>
           <a:ln w="22225" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="F3797E"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2914,12 +2721,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2973,7 +2777,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4B49AC"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3054,7 +2858,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="F3797E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3142,9 +2946,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3159,12 +2962,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="dk1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3178,6 +2978,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40947567916747568"/>
+              <c:y val="0.87447103383327229"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3191,12 +2999,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3229,12 +3034,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3280,12 +3082,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3332,12 +3131,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3361,7 +3157,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:srgbClr val="98BDFF"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3379,7 +3175,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3396,7 +3199,6 @@
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -3422,7 +3224,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable1</c:name>
+    <c:name>[Bike_sales_dashboard.xlsx]Pivot Table!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -4107,7 +3909,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable2</c:name>
+    <c:name>[Bike_sales_dashboard.xlsx]Pivot Table!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -4751,7 +4553,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable3</c:name>
+    <c:name>[Bike_sales_dashboard.xlsx]Pivot Table!PivotTable3</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -8766,16 +8568,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>532532</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>24974</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152066</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66043</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8804,16 +8606,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>519453</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>84258</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>528699</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>121714</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8842,16 +8644,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>173392</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12345</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>10946</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>556493</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63050</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8880,16 +8682,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>46913</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>405719</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>31378</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -8925,8 +8727,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="694613"/>
-              <a:ext cx="2234519" cy="1127465"/>
+              <a:off x="114509" y="770328"/>
+              <a:ext cx="2456721" cy="749508"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8959,15 +8761,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>61740</xdr:rowOff>
+      <xdr:colOff>114103</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>416253</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25485</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -9003,8 +8805,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="1852440"/>
-              <a:ext cx="2245053" cy="2440245"/>
+              <a:off x="114103" y="1582295"/>
+              <a:ext cx="2457127" cy="2685738"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9037,15 +8839,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57727</xdr:rowOff>
+      <xdr:colOff>92229</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>78742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>412299</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>113730</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>7840</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -9081,8 +8883,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="4324927"/>
-              <a:ext cx="2241099" cy="1961003"/>
+              <a:off x="92229" y="4346775"/>
+              <a:ext cx="2479001" cy="1990245"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9114,16 +8916,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>418054</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>259080</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428828</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9140,6 +8942,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:srgbClr val="98BDFF">
+              <a:tint val="45000"/>
+              <a:satMod val="400000"/>
+            </a:srgbClr>
+          </a:duotone>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9153,8 +8962,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1027654" cy="629920"/>
+          <a:off x="116209" y="62255"/>
+          <a:ext cx="1038926" cy="630850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9310,7 +9119,7 @@
         <s v="Male"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Income" numFmtId="165">
+    <cacheField name="Income" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="170000"/>
     </cacheField>
     <cacheField name="Children" numFmtId="0">
@@ -25384,406 +25193,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5223B356-9A12-4183-8D0A-045BCDFA08B5}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="166"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="8">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D9F9C0D-FBBD-4FC2-94A2-E797F8EA987D}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="A33:D38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="12"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="8">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4FD77BAC-5080-4E3A-9690-05443F58F3C7}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="A16:D23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
@@ -25796,7 +25205,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
@@ -25989,6 +25398,421 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5223B356-9A12-4183-8D0A-045BCDFA08B5}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="9">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D9F9C0D-FBBD-4FC2-94A2-E797F8EA987D}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="A33:D38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Marital_Status" xr10:uid="{2FC42B87-7CB4-413C-A3B0-9F890F2ED265}" sourceName="Marital Status">
   <pivotTables>
@@ -26049,9 +25873,9 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Marital Status" xr10:uid="{BC5FCAC9-A8E3-481A-BA23-CE4B1D026C48}" cache="Slicer_Marital_Status" caption="Marital Status" style="SlicerStyleLight2" rowHeight="324000"/>
-  <slicer name="Education" xr10:uid="{F47EDA4C-0A13-4DE8-8F30-CED58182C67F}" cache="Slicer_Education" caption="Education" style="SlicerStyleLight2" rowHeight="360000"/>
-  <slicer name="Region" xr10:uid="{EEDC80C1-B9A7-459A-927E-7A0639119ACA}" cache="Slicer_Region" caption="Region" style="SlicerStyleLight2" rowHeight="468000"/>
+  <slicer name="Marital Status" xr10:uid="{BC5FCAC9-A8E3-481A-BA23-CE4B1D026C48}" cache="Slicer_Marital_Status" caption="Marital Status" columnCount="2" style="Purple Slicer 2" rowHeight="360000"/>
+  <slicer name="Education" xr10:uid="{F47EDA4C-0A13-4DE8-8F30-CED58182C67F}" cache="Slicer_Education" caption="Education" style="Purple Slicer 2" rowHeight="396000"/>
+  <slicer name="Region" xr10:uid="{EEDC80C1-B9A7-459A-927E-7A0639119ACA}" cache="Slicer_Region" caption="Region" style="Purple Slicer 2" rowHeight="468000"/>
 </slicers>
 </file>
 
@@ -26352,271 +26176,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ED9751-8777-4F6C-966E-45A1C857DD66}">
-  <dimension ref="A1:BL45"/>
+  <dimension ref="B1:Y21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC35" sqref="AC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="1.6328125" customWidth="1"/>
+    <col min="6" max="6" width="1.6328125" customWidth="1"/>
+    <col min="15" max="15" width="1.6328125" customWidth="1"/>
+    <col min="23" max="23" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="2:25" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="16"/>
-    </row>
-    <row r="2" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="19"/>
-    </row>
-    <row r="3" spans="1:64" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="22"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+    </row>
+    <row r="3" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="6"/>
-      <c r="BA3" s="6"/>
-      <c r="BB3" s="6"/>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
-      <c r="BE3" s="6"/>
-      <c r="BF3" s="6"/>
-      <c r="BG3" s="6"/>
-      <c r="BH3" s="6"/>
-      <c r="BI3" s="6"/>
-      <c r="BJ3" s="6"/>
-      <c r="BK3" s="6"/>
-      <c r="BL3" s="7"/>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="S4" s="10"/>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="S5" s="10"/>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="S6" s="10"/>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="S7" s="10"/>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="S8" s="10"/>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="S9" s="10"/>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="S10" s="10"/>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="S11" s="10"/>
-    </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="S12" s="10"/>
-    </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="S13" s="10"/>
-    </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="S14" s="10"/>
-    </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="S15" s="10"/>
-    </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="S16" s="10"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="S17" s="10"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="S18" s="10"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="S19" s="10"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="S20" s="10"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="S21" s="10"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="S22" s="10"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="S23" s="10"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="S24" s="10"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="S25" s="10"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="S26" s="10"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="S27" s="10"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="S28" s="10"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="S29" s="10"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="S30" s="10"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="S31" s="10"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="9"/>
-      <c r="S32" s="10"/>
-    </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="13"/>
-    </row>
-    <row r="44" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="P45" s="8"/>
-    </row>
+    </row>
+    <row r="4" spans="2:25" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+    </row>
+    <row r="5" spans="2:25" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:25" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="21" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:S3"/>
+    <mergeCell ref="B2:W4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26636,7 +26293,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A6"/>
-      <pivotSelection pane="bottomRight" showHeader="1" activeRow="4" click="1" r:id="rId1">
+      <pivotSelection pane="bottomRight" showHeader="1" activeRow="4" click="1" r:id="rId2">
         <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
           <references count="1">
             <reference field="2" count="0"/>
